--- a/data-raw/DE_PARA.xlsx
+++ b/data-raw/DE_PARA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/transparencia-mg/dt-contratacoes-coronavirus/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB804E5B-C2FE-DE47-A0DA-286386B53E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA19E0F-B74E-A146-88AD-EA5392D598E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{4EA3D1F0-8A75-3549-B7CC-51A81452A4EA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{4EA3D1F0-8A75-3549-B7CC-51A81452A4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="mapeamento" sheetId="2" r:id="rId1"/>
     <sheet name="compras-coronavirus" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Código Órgão/Entidade Pedido</t>
   </si>
   <si>
-    <t>Sigla Órgão/Entidade Pedido</t>
-  </si>
-  <si>
     <t>Nome Órgão/Entidade Pedido</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Código Órgão/Entidade Contratante</t>
   </si>
   <si>
-    <t>Sigla Órgão/Entidade Contratante</t>
-  </si>
-  <si>
     <t>Nome Órgão/Entidade Contratante</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Código Unidade Orçamentária</t>
   </si>
   <si>
-    <t>Sigla Unidade Orçamentária</t>
-  </si>
-  <si>
     <t>Nome Unidade Orçamentária</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>OBJETO_PROCESSO</t>
   </si>
   <si>
-    <t>DOCUMENTOS_PROCESSO</t>
-  </si>
-  <si>
     <t>SITUACAO_PROCESSO</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>CODIGO_UNIDADE_ORCAMENTARIA</t>
   </si>
   <si>
-    <t>SIGLA_UNIDADE_ORCAMENTARIA</t>
-  </si>
-  <si>
     <t>UNIDADE_ORCAMENTARIA</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t>URL_DOCUMENTOS_PROCESSO</t>
   </si>
   <si>
-    <t>SIGLA_ORGAO_DEMANDANTE</t>
-  </si>
-  <si>
     <t>URL_INTEGRA_CONTRATO</t>
   </si>
   <si>
@@ -289,12 +271,6 @@
   </si>
   <si>
     <t>VALOR_HOMOLOGADO_UNITARIO</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>SIGLA</t>
   </si>
   <si>
     <t>Operação</t>
@@ -329,6 +305,63 @@
   <si>
     <t>1) Coluna renomeada;
 2) Formato alterado de YYYYMMDD para YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Número do Processo de Compra </t>
+  </si>
+  <si>
+    <t>Data de Cadastramento do Processo </t>
+  </si>
+  <si>
+    <t>Objeto do Processo </t>
+  </si>
+  <si>
+    <t>Documentos do Processo </t>
+  </si>
+  <si>
+    <t>Código Órgão Demandante </t>
+  </si>
+  <si>
+    <t>Órgão Demandante </t>
+  </si>
+  <si>
+    <t>Situação do Processo </t>
+  </si>
+  <si>
+    <t>Procedimento de Contratação </t>
+  </si>
+  <si>
+    <t>Número do Contrato </t>
+  </si>
+  <si>
+    <t>Código Órgão </t>
+  </si>
+  <si>
+    <t>Órgão Contrato </t>
+  </si>
+  <si>
+    <t>Data da Publicação </t>
+  </si>
+  <si>
+    <t>Início da Vigência </t>
+  </si>
+  <si>
+    <t>Fim da Vigência </t>
+  </si>
+  <si>
+    <t>Fim da Vigência Atualizada </t>
+  </si>
+  <si>
+    <t>CPF/CNPJ do Contratado </t>
+  </si>
+  <si>
+    <t>Contratado </t>
+  </si>
+  <si>
+    <t>Valor de Referência </t>
+  </si>
+  <si>
+    <t>Valor Homologado </t>
   </si>
 </sst>
 </file>
@@ -740,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8291C637-62C6-C945-A2A2-29C51C8E558C}">
-  <dimension ref="B1:H44"/>
+  <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,22 +796,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -786,14 +819,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -802,19 +835,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -822,39 +855,37 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -862,19 +893,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -882,16 +913,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>2</v>
@@ -902,19 +933,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -922,19 +953,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -942,19 +973,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -962,19 +993,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -982,19 +1013,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -1002,16 +1033,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>0</v>
@@ -1022,19 +1053,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -1042,19 +1073,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -1062,203 +1093,248 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>5</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="4">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="4">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="4">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="4">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="4">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="4">
-        <v>13</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="4">
-        <v>14</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="4">
-        <v>15</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="4">
-        <v>16</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="4">
-        <v>17</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="4">
-        <v>18</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="4">
-        <v>19</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1269,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE88E70-50CD-1343-8CCB-842F856F0BD5}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,13 +1359,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1298,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="str">
         <f>B2</f>
@@ -1313,13 +1389,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D36" si="0">B3</f>
+        <f t="shared" ref="D3:D33" si="0">B3</f>
         <v>URL_PROCESSO_SEI</v>
       </c>
     </row>
@@ -1328,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1343,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1358,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1373,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1388,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1403,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1418,14 +1494,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>SIGLA_ORGAO_DEMANDANTE</v>
+        <v>ORGAO_DEMANDANTE</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,14 +1509,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>ORGAO_DEMANDANTE</v>
+        <v>SITUACAO_PROCESSO</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1448,14 +1524,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>SITUACAO_PROCESSO</v>
+        <v>PROCEDIMENTO_CONTRATACAO</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1463,14 +1539,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>PROCEDIMENTO_CONTRATACAO</v>
+        <v>NUMERO_CONTRATO</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1478,14 +1554,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>NUMERO_CONTRATO</v>
+        <v>URL_INTEGRA_CONTRATO</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,14 +1569,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>URL_INTEGRA_CONTRATO</v>
+        <v>CODIGO_ORGAO_CONTRATO</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1508,14 +1584,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>CODIGO_ORGAO_CONTRATO</v>
+        <v>ORGAO_CONTRATO</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,14 +1599,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>SIGLA_ORGAO_CONTRATO</v>
+        <v>DATA_PUBLICACAO</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1538,14 +1614,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>ORGAO_CONTRATO</v>
+        <v>INICIO_VIGENCIA</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,14 +1629,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>DATA_PUBLICACAO</v>
+        <v>FIM_VIGENCIA</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1568,14 +1644,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>INICIO_VIGENCIA</v>
+        <v>FIM_VIGENCIA_ATUALIZADA</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1583,14 +1659,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>FIM_VIGENCIA</v>
+        <v>CNPJ_CPF_CONTRATADO</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,14 +1674,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>FIM_VIGENCIA_ATUALIZADA</v>
+        <v>CONTRATADO</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,14 +1689,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>CNPJ_CPF_CONTRATADO</v>
+        <v>CODIGO_ITEM_MATERIAL_SERVICO</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1628,14 +1704,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>CONTRATADO</v>
+        <v>ITEM_MATERIAL_SERVICO</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,14 +1719,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>CODIGO_ITEM_MATERIAL_SERVICO</v>
+        <v>CODIGO_UNIDADE_ORCAMENTARIA</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,14 +1734,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>ITEM_MATERIAL_SERVICO</v>
+        <v>UNIDADE_ORCAMENTARIA</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1673,14 +1749,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>CODIGO_UNIDADE_ORCAMENTARIA</v>
+        <v>LINHA_FORNECIMENTO</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1688,14 +1764,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>SIGLA_UNIDADE_ORCAMENTARIA</v>
+        <v>CIDADE_ENTREGA</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1703,14 +1779,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>UNIDADE_ORCAMENTARIA</v>
+        <v>QUANTIDADE_HOMOLOGADA</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1718,14 +1794,14 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>LINHA_FORNECIMENTO</v>
+        <v>VALOR_REFERENCIA_UNITARIO</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,14 +1809,14 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>CIDADE_ENTREGA</v>
+        <v>VALOR_HOMOLOGADO_UNITARIO</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1748,14 +1824,14 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>QUANTIDADE_HOMOLOGADA</v>
+        <v>VALOR_REFERENCIA</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1763,57 +1839,12 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>VALOR_REFERENCIA_UNITARIO</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>VALOR_HOMOLOGADO_UNITARIO</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>VALOR_REFERENCIA</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_HOMOLOGADO</v>
       </c>

--- a/data-raw/DE_PARA.xlsx
+++ b/data-raw/DE_PARA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/transparencia-mg/dt-contratacoes-coronavirus/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA19E0F-B74E-A146-88AD-EA5392D598E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920E30D4-4D7C-C844-AA32-94A03A0B19C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{4EA3D1F0-8A75-3549-B7CC-51A81452A4EA}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{4EA3D1F0-8A75-3549-B7CC-51A81452A4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="mapeamento" sheetId="2" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8291C637-62C6-C945-A2A2-29C51C8E558C}">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1374,14 +1374,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f>B2</f>
-        <v>PROCESSO_SEI</v>
+        <f t="shared" ref="D2:D33" si="0">B2</f>
+        <v>NUMERO_PROCESSO_COMPRA</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1389,14 +1389,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D33" si="0">B3</f>
-        <v>URL_PROCESSO_SEI</v>
+        <f t="shared" si="0"/>
+        <v>URL_PORTAL_TRANSPARENCIA</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1404,14 +1404,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>NUMERO_PROCESSO_COMPRA</v>
+        <v>DATA_CADASTRAMENTO_PROCESSO</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1419,14 +1419,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>URL_PORTAL_TRANSPARENCIA</v>
+        <v>OBJETO_PROCESSO</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,14 +1434,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>DATA_CADASTRAMENTO_PROCESSO</v>
+        <v>URL_DOCUMENTOS_PROCESSO</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1449,14 +1449,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>OBJETO_PROCESSO</v>
+        <v>CODIGO_ORGAO_DEMANDANTE</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1464,14 +1464,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>URL_DOCUMENTOS_PROCESSO</v>
+        <v>ORGAO_DEMANDANTE</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,14 +1479,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>CODIGO_ORGAO_DEMANDANTE</v>
+        <v>SITUACAO_PROCESSO</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1494,14 +1494,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>ORGAO_DEMANDANTE</v>
+        <v>PROCEDIMENTO_CONTRATACAO</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,14 +1509,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>SITUACAO_PROCESSO</v>
+        <v>NUMERO_CONTRATO</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1524,14 +1524,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>PROCEDIMENTO_CONTRATACAO</v>
+        <v>URL_INTEGRA_CONTRATO</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,14 +1539,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>NUMERO_CONTRATO</v>
+        <v>CODIGO_ORGAO_CONTRATO</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1554,14 +1554,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>URL_INTEGRA_CONTRATO</v>
+        <v>ORGAO_CONTRATO</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1569,14 +1569,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>CODIGO_ORGAO_CONTRATO</v>
+        <v>DATA_PUBLICACAO</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1584,14 +1584,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>ORGAO_CONTRATO</v>
+        <v>INICIO_VIGENCIA</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1599,14 +1599,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>DATA_PUBLICACAO</v>
+        <v>FIM_VIGENCIA</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1614,14 +1614,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>INICIO_VIGENCIA</v>
+        <v>FIM_VIGENCIA_ATUALIZADA</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1629,14 +1629,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>FIM_VIGENCIA</v>
+        <v>CNPJ_CPF_CONTRATADO</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1644,14 +1644,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>FIM_VIGENCIA_ATUALIZADA</v>
+        <v>CONTRATADO</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1659,14 +1659,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>CNPJ_CPF_CONTRATADO</v>
+        <f>B21</f>
+        <v>PROCESSO_SEI</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1674,14 +1674,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>CONTRATADO</v>
+        <f>B22</f>
+        <v>URL_PROCESSO_SEI</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
